--- a/Tutorial01/Assets/TestControl.xlsx
+++ b/Tutorial01/Assets/TestControl.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2544E4F1-4C5E-46A1-99E6-378610ED9C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA7A5C-4FA4-4E5C-80E3-478E58C617E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="9" r:id="rId12"/>
-    <sheet name="setting.ini" sheetId="8" r:id="rId11"/>
-    <sheet name="template-statefunc" sheetId="7" r:id="rId10"/>
-    <sheet name="template-source" sheetId="6" r:id="rId9"/>
-    <sheet name="config" sheetId="5" r:id="rId8"/>
+    <sheet name="help" sheetId="14" r:id="rId15"/>
+    <sheet name="setting.ini" sheetId="13" r:id="rId14"/>
+    <sheet name="template-statefunc" sheetId="12" r:id="rId13"/>
+    <sheet name="template-source" sheetId="11" r:id="rId12"/>
+    <sheet name="config" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -132,171 +132,6 @@
   <si>
     <t>members</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;?state/^C_/
-eof&gt;&gt;&gt;
-/*
-    [[state]]
-    [[state-cmt]]
-*/
-&lt;&lt;&lt;?state/^E_/
-[[embed]]
-eof&gt;&gt;&gt;
-[[members]]
-void [[state]](bool bFirst)
-{
-    &lt;&lt;&lt;?init
-    if (bFirst)
-    {
-        [[init]]
-    }
-    &gt;&gt;&gt;
-    [[update]]
-    &lt;&lt;&lt;?wait
-    if (![[wait]]) return;
-    &gt;&gt;&gt;
-    [[post_wait]]
-    &lt;&lt;&lt;?branch
-    // branch
-    [[branch]]
-    &gt;&gt;&gt;
-    &lt;&lt;&lt;?nextstate        
-    //
-    if (!HasNextState())
-    {
-        SetNextState([[nextstate]]);
-    }
-    &gt;&gt;&gt;
-    //
-    if (HasNextState())
-    {
-        &lt;&lt;&lt;?nowait
-        NoWait();
-        &gt;&gt;&gt;
-        GoNextState();
-    }
-}
-</t>
-  </si>
-  <si>
-    <t>; -----
-; 項目説明
-; -----
-[embed]
-jpn=@@@
-コード埋め込み用。
-ステート名がE_時に利用可能。
-ステート機能は利用できない。
-@@@
-en=@@@
-For embedding code.
-Enable this section if state name starts with "E_".
-Disabled state features.
-@@@
-[members]
-jpn=@@@
-メンバ変数及び関数等を指定する。
-@@@
-en=@@@
-Specify members, variables, classes,  etc.
-@@@
-[state]
-jpn=@@@
-ステート名を指定する。
-英文字、数字、アンダーバーで構成される。
-先頭は英文字およびアンダーバー。
-@@@
-en=@@@
-Specify a state name.
-The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
-@@@
-[thumbnail]
-jpn=@@@
-説明用のイメージを指定する。
-@@@
-en=@@@
-Specify a image for explanation of this state.
-@@@
-[init]
-jpn=@@@
-初期化用処理を指定する。
-@@@
-en=@@@
-Specify a initial process.
-@@@
-[update]
-jpn=@@@
-更新処理を指定する。
-@@@
-en=@@@
-Specify a update process.
-@@@
-[wait]
-jpn=@@@
-待ち条件を指定する。
-true時にループを解除する。
-@@@
-en=@@@
-Specify a waiting condition.
-Release the loop if the condition is true.
-@@@
-[post_wait]
-jpn=@@@
-'wait'後の処理を指定する。
-@@@
-en=@@@
-Specify the post process after 'wait'.
-@@@
-[branch]
-jpn=@@@
-分岐処理を指定する。
-１行に一つの分岐命令を書く。
-GUIにより上書きされるため引数は適当に指定する。
-例）
-br_YES(?);
-br_NO(?);
-br_UNKNOWN(?);
-@@@
-en=@@@
-Specify branch functions.
-Each line has a branch function.
-Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
-i.e)
-br_YES(?);
-br_NO(?);
-br_UNKNOWN(?);
-@@@
-[nextstate]
-jpn=@@@
-次に実行するステートを指定する。
-@@@
-en=@@@
-Specify the next state to be executed.
-@@@
-[nowait]
-jpn=@@@
-次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
-同期待ち時には何も指定しない。
-@@@
-en=@@@
-Specify 'yes' if the next state will be execute without a sync wait.
-Do not specify any word wheh the next state will be execute with a sync wait.
-@@@
-[!dir]
-jpn=@@@
-システムがステートのディレクトリ指定に使用。
-@@@
-en=@@@
-System uses this for the directory path of the state.
-@@@
-[!uuid]
-jpn=@@@
-システムがステートのuuid指定に使用。
-@@@
-en=@@@
-System uses this for the uuid of the state.
-@@@</t>
   </si>
   <si>
     <t>[setting]
@@ -379,8 +214,7 @@
       TestControl.cs   -- the editor will convert from the excel file into this file. 
 NOTE : If the same name files exists, the file will not be created.
        Please delete the same name files ahead of the creation.
-@@@
-</t>
+@@@</t>
   </si>
   <si>
     <t>S_0001</t>
@@ -404,13 +238,11 @@
     <t>キューブ作成</t>
   </si>
   <si>
-    <t>GameObject.CreatePrimitive(PrimitiveType.Cube);
-</t>
+    <t>GameObject.CreatePrimitive(PrimitiveType.Cube);</t>
   </si>
   <si>
     <t>/
-(100,100)
-</t>
+(100,100)</t>
   </si>
   <si>
     <t>204,160</t>
@@ -470,11 +302,370 @@
 state_width=140
 state_height=20
 comment_block_height=45
+line_space=-1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vars</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;?state/^C_/
+eof&gt;&gt;&gt;
+/*
+    [[state]]
+    [[state-cmt]]
+*/
+&lt;&lt;&lt;?state/^E_/
+[[embed]]
+eof&gt;&gt;&gt;
+[[members]]
+void [[state]](bool bFirst)
+{
+    [[vars]]
+    &lt;&lt;&lt;?init
+    if (bFirst)
+    {
+        [[init]]
+    }
+    &gt;&gt;&gt;
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    &lt;&lt;&lt;?branch
+    // branch
+    [[branch]]
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nextstate        
+    //
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    //
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+        NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[embed]
+jpn=@@@
+コード埋め込み用。
+ステート名がE_時に利用可能。
+ステート機能は利用できない。
+@@@
+en=@@@
+For embedding code.
+Enable this section if state name starts with "E_".
+Disabled state features.
+@@@
+[members]
+jpn=@@@
+メンバ変数及び関数等を指定する。
+@@@
+en=@@@
+Specify members, variables, classes,  etc.
+@@@
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[[vars]]
+jpn=@@@
+変数宣言を指定する。
+@@@
+en=@@@
+Specify variable definitions.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[embed]
+jpn=@@@
+コード埋め込み用。
+ステート名がE_時に利用可能。
+ステート機能は利用できない。
+@@@
+en=@@@
+For embedding code.
+Enable this section if state name starts with "E_".
+Disabled state features.
+@@@
+[members]
+jpn=@@@
+メンバ変数及び関数等を指定する。
+@@@
+en=@@@
+Specify members, variables, classes,  etc.
+@@@
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[vars]
+jpn=@@@
+変数宣言を指定する。
+@@@
+en=@@@
+Specify variable definitions.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/30 13:12:18
+; * pssgEditor version : 0.11.9342.83b540fce878d5a449f6e44c3b08b61cfafe5b73
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+891bb976-f623-4d3a-82c9-319e339ab8d8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":204,"y":160}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
 line_space=-1
 </t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -561,7 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -583,37 +774,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294"/>
+        <fgColor theme="4" tint="0.39991454817347"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431"/>
+        <fgColor theme="8" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294"/>
+        <fgColor theme="7" tint="0.39991454817347"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -729,6 +920,9 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1017,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1042,7 +1236,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true">
@@ -1060,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true">
@@ -1074,7 +1268,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="true">
@@ -1095,7 +1289,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -1141,31 +1335,31 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="11" s="11" customFormat="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="true">
+    </row>
+    <row r="12" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1173,24 +1367,24 @@
     </row>
     <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" s="11" customFormat="true">
+    <row r="16" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1198,16 +1392,16 @@
     </row>
     <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -1215,7 +1409,7 @@
     <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1223,16 +1417,16 @@
     </row>
     <row r="20" s="11" customFormat="true">
       <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" s="11" customFormat="true">
       <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1240,7 +1434,7 @@
     <row r="22" s="11" customFormat="true">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1248,73 +1442,82 @@
     </row>
     <row r="23" s="11" customFormat="true">
       <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" s="13" customFormat="true">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+    <row r="24" s="11" customFormat="true">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" s="13" customFormat="true">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" s="15" customFormat="true" ht="18.75" customHeight="true">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+    <row r="26" s="13" customFormat="true">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" s="15" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" s="16" customFormat="true"/>
-    <row r="28" s="16" customFormat="true">
-      <c r="B28" s="16" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" s="16" customFormat="true"/>
+    <row r="29" s="16" customFormat="true" ht="37.5">
+      <c r="B29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" s="16" customFormat="true">
-      <c r="B29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F29" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" s="16" customFormat="true">
       <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" s="16" customFormat="true">
+      <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>40</v>
+      <c r="D31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1324,21 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1360,6 +1549,20 @@
     <row r="1">
       <c r="A1" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1576,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1590,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial01/Assets/TestControl.xlsx
+++ b/Tutorial01/Assets/TestControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="14" r:id="rId15"/>
-    <sheet name="setting.ini" sheetId="13" r:id="rId14"/>
-    <sheet name="template-statefunc" sheetId="12" r:id="rId13"/>
-    <sheet name="template-source" sheetId="11" r:id="rId12"/>
-    <sheet name="config" sheetId="10" r:id="rId11"/>
+    <sheet name="help" sheetId="24" r:id="rId25"/>
+    <sheet name="setting.ini" sheetId="23" r:id="rId24"/>
+    <sheet name="template-statefunc" sheetId="22" r:id="rId23"/>
+    <sheet name="template-source" sheetId="21" r:id="rId22"/>
+    <sheet name="config" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -639,6 +639,121 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":204,"y":160}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>S_CREATE_CUBE</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/30 17:03:11
+; * pssgEditor version : 0.11.9342.83b540fce878d5a449f6e44c3b08b61cfafe5b73
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+891bb976-f623-4d3a-82c9-319e339ab8d8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":204,"y":160}},{"Key":"S_CREATE_CUBE","Value":{"x":204,"y":160}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/30 17:05:08
+; * pssgEditor version : 0.11.9342.83b540fce878d5a449f6e44c3b08b61cfafe5b73
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+891bb976-f623-4d3a-82c9-319e339ab8d8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":204,"y":160}},{"Key":"S_CREATE_CUBE","Value":{"x":204,"y":160}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1254,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true">
@@ -1289,7 +1404,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -1527,7 +1642,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1541,7 +1684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1555,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1567,32 +1710,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>